--- a/Design/Final/Documentation/BillOfMaterials/Manufacturing BOM - Prototype.xlsx
+++ b/Design/Final/Documentation/BillOfMaterials/Manufacturing BOM - Prototype.xlsx
@@ -446,7 +446,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,12 +1021,11 @@
         <v>49</v>
       </c>
       <c r="G21" s="3" t="n">
-        <f aca="false">E21*D21</f>
-        <v>45.8</v>
+        <v>22.9</v>
       </c>
       <c r="H21" s="3" t="n">
         <f aca="false">0.6*G21</f>
-        <v>27.48</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,18 +1042,18 @@
         <v>1</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17.9</v>
+        <v>99.9</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>49</v>
       </c>
       <c r="G22" s="3" t="n">
         <f aca="false">E22*D22</f>
-        <v>17.9</v>
+        <v>99.9</v>
       </c>
       <c r="H22" s="3" t="n">
         <f aca="false">0.6*G22</f>
-        <v>10.74</v>
+        <v>59.94</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,18 +1070,18 @@
         <v>1</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>99.9</v>
+        <v>17.9</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="3" t="n">
         <f aca="false">E23*D23</f>
-        <v>99.9</v>
+        <v>17.9</v>
       </c>
       <c r="H23" s="3" t="n">
         <f aca="false">0.6*G23</f>
-        <v>59.94</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,18 +1098,18 @@
         <v>1</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.9</v>
+        <v>16.9</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>49</v>
       </c>
       <c r="G24" s="3" t="n">
         <f aca="false">E24*D24</f>
-        <v>17.9</v>
+        <v>16.9</v>
       </c>
       <c r="H24" s="3" t="n">
         <f aca="false">0.6*G24</f>
-        <v>10.74</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,19 +1125,19 @@
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="5" t="n">
-        <v>16.9</v>
+      <c r="E25" s="0" t="n">
+        <v>17.9</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>49</v>
       </c>
       <c r="G25" s="3" t="n">
         <f aca="false">E25*D25</f>
-        <v>16.9</v>
+        <v>17.9</v>
       </c>
       <c r="H25" s="3" t="n">
         <f aca="false">0.6*G25</f>
-        <v>10.14</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,11 +1239,11 @@
       <c r="F31" s="1"/>
       <c r="G31" s="6" t="n">
         <f aca="false">SUM(G3:G28)</f>
-        <v>906.94</v>
+        <v>884.04</v>
       </c>
       <c r="H31" s="6" t="n">
         <f aca="false">SUM(H3:H28)</f>
-        <v>544.164</v>
+        <v>530.424</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
